--- a/VOITURE_AUTONOME/ROBOT_TEST_2023/Branchements ROBOT_TEST_2023 - Copie.xlsx
+++ b/VOITURE_AUTONOME/ROBOT_TEST_2023/Branchements ROBOT_TEST_2023 - Copie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frédérick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85C763BC-24BE-453B-9EE6-DCE3A935DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D63BAB6F-E34B-4441-8B54-B015427EB23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="945" windowWidth="14580" windowHeight="12150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>D8</t>
   </si>
@@ -198,16 +198,25 @@
     <t>TX</t>
   </si>
   <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
     <t>U0TXD</t>
   </si>
   <si>
     <t>U0RXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED CAPTEUR DE CHOC</t>
   </si>
 </sst>
 </file>
@@ -282,74 +291,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -391,30 +338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -424,7 +347,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color theme="1"/>
       </left>
       <right/>
@@ -433,65 +378,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color theme="1"/>
       </right>
       <top/>
@@ -499,32 +387,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left style="medium">
         <color theme="1"/>
-      </top>
-      <bottom/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <left/>
+      <right style="medium">
         <color theme="1"/>
-      </top>
-      <bottom/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -535,78 +423,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,110 +806,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C10:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F10" s="20" t="s">
+    <row r="10" spans="3:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="33"/>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="32" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="33"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="33"/>
+    <row r="14" spans="3:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="6"/>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="31" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="17" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="33"/>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="31" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="17" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -1037,100 +930,101 @@
         <v>52</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="35" t="s">
+      <c r="N15" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R15" s="42"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="5"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37" t="s">
+      <c r="M16" s="33"/>
+      <c r="N16" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="42"/>
-    </row>
-    <row r="17" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="28"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="13"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="4:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="12"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="11"/>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="20"/>
+      <c r="N17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="12" t="s">
+      <c r="P17" s="34"/>
+      <c r="Q17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="42"/>
+      <c r="R17" s="19"/>
     </row>
     <row r="18" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37" t="s">
+      <c r="M18" s="20"/>
+      <c r="N18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="12" t="s">
+      <c r="O18" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="4:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="39"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="42"/>
-    </row>
-    <row r="24" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R19" s="19"/>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
         <v>20</v>
@@ -1139,42 +1033,48 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="22" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8" t="s">
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8" t="s">
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="10" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -1182,32 +1082,34 @@
       </c>
     </row>
     <row r="28" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="1"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8" t="s">
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="12" t="s">
-        <v>40</v>
+      <c r="H29" s="16"/>
+      <c r="I29" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>36</v>
@@ -1215,16 +1117,16 @@
     </row>
     <row r="30" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12" t="s">
-        <v>41</v>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>37</v>
@@ -1232,15 +1134,15 @@
     </row>
     <row r="31" spans="4:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1249,25 +1151,25 @@
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="12"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="5"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="5"/>
     </row>
   </sheetData>
